--- a/biology/Zoologie/Prolamioides_bituminosus/Prolamioides_bituminosus.xlsx
+++ b/biology/Zoologie/Prolamioides_bituminosus/Prolamioides_bituminosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prolamioides
 Prolamioides est un genre d'insecte fossile dans l'ordre des Coleoptera et dans la famille des Cerambycidae. Prolamioides bituminosus est une espèce fossile dans le genre Prolamioides, dans la famille des Cerambycidae. C'est aussi l'espèce type du genre.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Prolamioides et l'espèce Prolamioides bituminosus sont décrits en 1937 par les paléontologues français Piton (1909-1945) et Théobald (1903-1981)[1],[2],[3]. 
-Fossiles
-L'holotype MNHN.F.R07016 vient de la collection Piacentini, conservée au Muséum national d'histoire naturelle de Paris, et vient de la commune de Menat dans le département du Puy-de-Dôme en Auvergne[4].
-Espèces
-Selon Paleobiology Database, en 2023, le genre Prolamioides a deux espèces[2] :
-Prolamioides bituminosus
-Prolamioides brunneus Piton 1940[2]
-Étymologie
-L'épithète spécifique latine bituminosus signifie « bitumineux ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Prolamioides et l'espèce Prolamioides bituminosus sont décrits en 1937 par les paléontologues français Piton (1909-1945) et Théobald (1903-1981). 
 </t>
         </is>
       </c>
@@ -548,15 +554,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype MNHN.F.R07016 vient de la collection Piacentini, conservée au Muséum national d'histoire naturelle de Paris, et vient de la commune de Menat dans le département du Puy-de-Dôme en Auvergne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database, en 2023, le genre Prolamioides a deux espèces :
+Prolamioides bituminosus
+Prolamioides brunneus Piton 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine bituminosus signifie « bitumineux ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-« Insecte noirâtre de forme ovale allongée, assez trapu. Tête vue de dessus, un œil placé sur le côté est encore visible, et semble échancré en avant ; dans cette échancrure est insérée l'antenne. Antennes ne dépassant pas la longueur du corps, premier article renflé, deuxième très court, les autres à peu près subégaux entre eux, cylindriques, visibles jusqu'au onzième qui est presque effacé, ni cils, ni pointes visibles. Prothorax subquadrangulaire, sans pointe sur le côté, rétréci à l'arrière. Elytres à épaules saillant sur le côté, atteignant l'extrémité de l'abdomen, aucune ornementation visible. Face ventrale bien dégagée, en avant sternite 1 réduit (st1), hanches 1 presque en contact, trochanters très faibles, placés latéralement, fémurs non renflés, tibias un peu élargis à l'apex, tarses de 4 articles, les premier et deuxième aplatis, le troisième bilobé, le quatrième réduit à un ongle ; sternites II plus larges, épisternites (est 2) et épimère (epm 2) visibles sur le côté, hanches II (h 2) en contact, trochanter II (t 2) très faibles, fémurs II non renflés, tibias cylindriques, tarses manquent ; sternites III (st 3) bien visibles, larges, quadrangulaires, hanches écartées, même conformation des pattes. Abdomen nettement segmenté »[5].
-Dimensions
-« Longueur totale : 22 mm , largeur : 9 à 10 mm »[5].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Insecte noirâtre de forme ovale allongée, assez trapu. Tête vue de dessus, un œil placé sur le côté est encore visible, et semble échancré en avant ; dans cette échancrure est insérée l'antenne. Antennes ne dépassant pas la longueur du corps, premier article renflé, deuxième très court, les autres à peu près subégaux entre eux, cylindriques, visibles jusqu'au onzième qui est presque effacé, ni cils, ni pointes visibles. Prothorax subquadrangulaire, sans pointe sur le côté, rétréci à l'arrière. Elytres à épaules saillant sur le côté, atteignant l'extrémité de l'abdomen, aucune ornementation visible. Face ventrale bien dégagée, en avant sternite 1 réduit (st1), hanches 1 presque en contact, trochanters très faibles, placés latéralement, fémurs non renflés, tibias un peu élargis à l'apex, tarses de 4 articles, les premier et deuxième aplatis, le troisième bilobé, le quatrième réduit à un ongle ; sternites II plus larges, épisternites (est 2) et épimère (epm 2) visibles sur le côté, hanches II (h 2) en contact, trochanter II (t 2) très faibles, fémurs II non renflés, tibias cylindriques, tarses manquent ; sternites III (st 3) bien visibles, larges, quadrangulaires, hanches écartées, même conformation des pattes. Abdomen nettement segmenté ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prolamioides_bituminosus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Longueur totale : 22 mm , largeur : 9 à 10 mm ».
 </t>
         </is>
       </c>
